--- a/Testdata/UITestdata.xlsx
+++ b/Testdata/UITestdata.xlsx
@@ -37,7 +37,7 @@
     <t>AutomationAutomation Practice</t>
   </si>
   <si>
-    <t>Testcase002</t>
+    <t/>
   </si>
 </sst>
 </file>
